--- a/spreadsheet/macrofree/aks_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/aks_checklist.zh-Hant.xlsx
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>使用 Canary 或藍/綠部署</t>
+          <t>使用金絲雀或藍/綠部署</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>如果需要 AKS Windows 工作負載，可以使用 HostProcess 容器</t>
+          <t>如果 AKS Windows 工作負載需要，可以使用 HostProcess 容器</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 流量管理器或 Azure Front Door 作為區域故障轉移的全域負載均衡器Use Azure Traffic Manager or Azure Front Door as a global load balancer for region failover</t>
+          <t>使用 Azure 流量管理員或 Azure Front Door 作為區域故障轉移的全域負載均衡器</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>如果 Azure 區域支援可用性區域，請使用它們</t>
+          <t>如果可用性區域在 Azure 區域中受支援，請使用可用性區域</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1575,7 +1575,7 @@
       </c>
       <c r="C19" s="21" t="inlineStr">
         <is>
-          <t>定義非功能性需求，例如 SLA、RTO（恢復時間目標）和 RPO（恢復點目標）。</t>
+          <t>定義非功能性要求，例如 SLA、RTO（恢復時間目標）和 RPO（恢復點目標）。</t>
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>使用外部應用程式（如 kubecost）將成本分配給不同的使用者</t>
+          <t>使用外部應用（如 kubecost）將成本分配給不同的使用者</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>使用縮減模式刪除/去分配節點</t>
+          <t>使用縮減模式刪除/取消分配節點</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>需要時，在 AKS 群集上使用多實例分區 GPU</t>
+          <t>需要時，請在 AKS 群集上使用多實例分組 GPU</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>如果運行開發/測試群集，請使用 NodePool 啟動/停止</t>
+          <t>如果運行開發/測試群集，請使用 NodePool Start/Stop</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>將污點添加到系統節點池以使其專用</t>
+          <t>向系統節點池添加污點以使其專用</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 安全中心檢測安全態勢漏洞</t>
+          <t>使用 Azure 安全中心檢測安全狀況漏洞</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>定義應用程式分離要求（命名空間/節點池/群集）</t>
+          <t>定義應用分離要求（命名空間/節點池/集群）</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>如果對群集使用服務主體，請定期（如每季度）刷新憑據</t>
+          <t>如果將服務主體用於群集，請定期刷新憑據（如每季度）</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>將身份驗證與 AAD 集成（使用託管集成）Integrate authentication with AAD （using the managed integration）</t>
+          <t>將身份驗證與 AAD（使用託管集成）集成</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>對於 AKS 非互動式登錄，請使用 kubelogin（預覽版）</t>
+          <t>對於 AKS 非互動式登錄名，請使用 kubelogin（預覽版）</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2766,7 +2766,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請進行配置：即時群集訪問Configure if required Just-in-time cluster access</t>
+          <t>如果需要，請配置 Just-in-time 群集訪問</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2811,7 +2811,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請為 AKS 配置 AAD 條件存取</t>
+          <t>如果需要，為 AKS 配置 AAD 條件訪問</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C47" s="21" t="inlineStr">
         <is>
-          <t>如果需要 Windows AKS 工作負載，請配置 gMSA</t>
+          <t>如果 Windows AKS 工作負載需要，請配置 gMSA</t>
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>為了進行更精細的控制，請考慮使用託管的 Kubelet 標識</t>
+          <t>為了獲得更精細的控制，請考慮使用託管的 Kubelet 身份</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>如果使用 AGIC，請不要在群集之間共用 AppGW</t>
+          <t>如果使用 AGIC，請勿跨集群共用 AppGW</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2993,7 +2993,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>請勿使用 AKS 應用程式路由載入項</t>
+          <t>不要使用 AKS HTTP 路由載入項，而是將託管 NGINX 入口與應用程式路由載入項一起使用。</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -3312,7 +3312,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網大小</t>
+          <t>如果使用 Azure CNI，請根據每個節點的最大 Pod 數相應地調整子網的大小</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請檢查最大 Pod/節點數（預設為 30）</t>
+          <t>如果使用 Azure CNI，請檢查每個節點的最大 Pod 數（預設為 30）</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3402,12 +3402,12 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>如果使用專用 IP 負載均衡器服務，請使用專用子網（而不是 AKS 子網）</t>
+          <t>如果使用專用IP LoadBalancer服務，請使用專用子網（而不是 AKS 子網）</t>
         </is>
       </c>
       <c r="D59" s="21" t="inlineStr">
         <is>
-          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，也可能打開對 Pod 的網路訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此 IP 可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務將降低群集的最大可伸縮性。</t>
+          <t>對於內部應用，組織通常會在其防火牆中打開整個AKS子網。這也會打開對節點的網路訪問，並可能打開對 Pod 的訪問（如果使用 Azure CNI）。如果 LoadBalancer IP 位於不同的子網中，則只有此子網可供應用用戶端使用。另一個原因是，如果 AKS 子網中的 IP 位址是稀缺資源，則將其 IP 位址用於服務會降低群集的最大可伸縮性。</t>
         </is>
       </c>
       <c r="E59" s="21" t="inlineStr">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>如果需要，請在 AKS 中設定每個節點的公共 IP（如果需要）</t>
+          <t>如果需要，請在 AKS 中配置每個節點的公共 IP</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure NAT 閘道作為 outboundType 縮放出口流量</t>
+          <t>使用 Azure NAT 閘道作為 outboundType 來縮放出口流量</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3724,7 +3724,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>如果安全要求，請使用 AzFW/NVA 篩選出口流量</t>
+          <t>如果安全要求要求，請使用 AzFW/NVA 篩選出口流量</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>如果使用公有 API 終端節點，請限制可以存取它的 IP 位址</t>
+          <t>如果使用公共 API 終端節點，請限制可以存取它的 IP 位址</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
@@ -3815,7 +3815,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>如果要求使用專用群集，請使用專用群集</t>
+          <t>如果要求要求，請使用私有集群</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>針對最關鍵的指標配置警報（有關建議，請參閱容器見解）</t>
+          <t>設定有關最關鍵指標的警報（請參閱容器見解以獲取建議）</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4229,7 +4229,7 @@
       </c>
       <c r="C77" s="21" t="inlineStr">
         <is>
-          <t>定期查看 Azure 顧問，以獲取有關群集的建議</t>
+          <t>定期查看 Azure 顧問，瞭解有關群集的建議</t>
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
@@ -4367,7 +4367,7 @@
       </c>
       <c r="C80" s="21" t="inlineStr">
         <is>
-          <t>如果不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
+          <t>如果您不使用 node-image 升級，請使用 kured 進行 Linux 節點升級</t>
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>考慮將應用程式或集群配置部署到多個集群的 gitops</t>
+          <t>考慮使用 gitops 將應用程式或集群配置部署到多個集群</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>考慮在專用群集上使用 AKS 命令調用</t>
+          <t>請考慮在專用群集上使用 AKS 命令調用</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4551,7 +4551,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>對於計劃內的事件，請考慮使用節點自動排水</t>
+          <t>對於計劃的事件，請考慮使用 Node Auto Drain</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>制定自己的治理實踐，以確保節點 RG（又名“infra RG”）中的操作員不執行任何更改</t>
+          <t>開發自己的治理實踐，以確保節點 RG（又名“基礎設施 RG”）中的操作員不會執行任何更改</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>不要在 YAML 清單中使用已棄用的 Kubernetes API</t>
+          <t>請勿在 YAML 清單中使用已棄用的 Kubernetes API</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>污點 Windows 節點</t>
+          <t>污染 Windows 節點</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>將主日誌（也稱為 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
+          <t>將主日誌（又名 API 紀錄）發送到 Azure Monitor 或首選日誌管理解決方案</t>
         </is>
       </c>
       <c r="D90" s="21" t="inlineStr">
@@ -4923,7 +4923,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>考慮將現成節點池用於非時間敏感型工作負載</t>
+          <t>考慮將現成節點池用於對時間敏感的工作負載</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -4969,7 +4969,7 @@
       </c>
       <c r="C93" s="21" t="inlineStr">
         <is>
-          <t>考慮使用用於快速突發的 AKS 虛擬節點</t>
+          <t>考慮用於快速突發的 AKS 虛擬節點</t>
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
@@ -5153,7 +5153,7 @@
       </c>
       <c r="C97" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure CNI，請監視每個節點使用的 Pod IP 百分比</t>
+          <t>如果使用 Azure CNI，請監視每個節點消耗的 Pod IP 的百分比</t>
         </is>
       </c>
       <c r="D97" s="21" t="n"/>
@@ -5204,7 +5204,7 @@
       </c>
       <c r="D98" s="21" t="inlineStr">
         <is>
-          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的OS在I/O上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
+          <t>OS 磁碟上的 I/O 是關鍵資源。如果節點中的操作系統在 I/O 上受到限制，這可能會導致不可預知的行為，通常最終導致節點被聲明為 NotReady</t>
         </is>
       </c>
       <c r="E98" s="21" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="C101" s="21" t="inlineStr">
         <is>
-          <t>在容器規範中配置請求和限制</t>
+          <t>在 Pod 規範中配置請求和限制</t>
         </is>
       </c>
       <c r="D101" s="21" t="n"/>
@@ -5622,7 +5622,7 @@
       </c>
       <c r="D107" s="21" t="inlineStr">
         <is>
-          <t>較大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
+          <t>更大的節點將帶來更高的性能和功能，例如臨時磁碟和加速網路，但它們會增加爆炸半徑並降低擴展粒度</t>
         </is>
       </c>
       <c r="E107" s="21" t="inlineStr">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="C109" s="21" t="inlineStr">
         <is>
-          <t>考慮訂閱 AKS 自動化的 EventGrid 事件</t>
+          <t>考慮訂閱 EventGrid Events for AKS 自動化</t>
         </is>
       </c>
       <c r="D109" s="21" t="n"/>
@@ -5896,7 +5896,7 @@
       </c>
       <c r="C113" s="21" t="inlineStr">
         <is>
-          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請對節點使用高 IOPS 和較大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
+          <t>對於非臨時磁碟，在運行多個 Pod/節點時，請為節點使用高 IOPS 和更大的 OS 磁碟，因為它需要高性能才能運行多個 Pod，並且會生成具有預設 AKS 日誌輪換閾值的大量日誌</t>
         </is>
       </c>
       <c r="D113" s="21" t="n"/>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="C114" s="21" t="inlineStr">
         <is>
-          <t>對於超高性能儲存選項，請在 AKS 上使用超級磁碟</t>
+          <t>對於超高性能存儲選項，請在 AKS 上使用超級磁碟For hyper performance storage option use Ultra Disks on AKS</t>
         </is>
       </c>
       <c r="D114" s="21" t="n"/>
@@ -6033,7 +6033,7 @@
       </c>
       <c r="C116" s="21" t="inlineStr">
         <is>
-          <t>如果使用 AzFiles Standard，請考慮 AzFiles Premium 和/或 ANF 以達到性能原因</t>
+          <t>如果使用 AzFiles Standard，出於性能原因，請考慮使用 AzFiles Premium 和/或 ANF</t>
         </is>
       </c>
       <c r="D116" s="21" t="n"/>
@@ -6078,7 +6078,7 @@
       </c>
       <c r="C117" s="21" t="inlineStr">
         <is>
-          <t>如果使用 Azure 磁碟和 AZ，請考慮在 LRS 磁碟的區域中設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或者將 ZRS 磁碟用於跨多個區域的節點池</t>
+          <t>如果使用 Azure 磁碟和可用區，請考慮在區域內為 LRS 磁碟設置節點池，並使用 VolumeBindingMode：WaitForFirstConsumer 在正確的區域中預配存儲，或將 ZRS 磁碟用於跨多個區域的節點池</t>
         </is>
       </c>
       <c r="D117" s="21" t="n"/>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>有一個與此檢查關聯的措施項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -9173,7 +9173,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
